--- a/db/parts.xlsx
+++ b/db/parts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-720" windowWidth="21600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="parts.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,1081 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="483">
+  <si>
+    <t>BIELETTE GMP</t>
+  </si>
+  <si>
+    <t>AR00051</t>
+  </si>
+  <si>
+    <t>SOUFFLET AMORTISSEUR</t>
+  </si>
+  <si>
+    <t>AR00052</t>
+  </si>
+  <si>
+    <t>CAPTEUR PMH</t>
+  </si>
+  <si>
+    <t>AR00053</t>
+  </si>
+  <si>
+    <t>CABLE FREIN A MAIN</t>
+  </si>
+  <si>
+    <t>AR00054</t>
+  </si>
+  <si>
+    <t>AR00106</t>
+  </si>
+  <si>
+    <t>C/C. DE BARRE STABI.</t>
+  </si>
+  <si>
+    <t>AR00107</t>
+  </si>
+  <si>
+    <t>FOURCHETTE D'EMBRAYAGE</t>
+  </si>
+  <si>
+    <t>AR00108</t>
+  </si>
+  <si>
+    <t>SILENT BLOC</t>
+  </si>
+  <si>
+    <t>AR00109</t>
+  </si>
+  <si>
+    <t>VOLANT MOTEUR</t>
+  </si>
+  <si>
+    <t>Code article</t>
+  </si>
+  <si>
+    <t>Libellé</t>
+  </si>
+  <si>
+    <t>Type d'article</t>
+  </si>
+  <si>
+    <t>PV HT</t>
+  </si>
+  <si>
+    <t>Unité</t>
+  </si>
+  <si>
+    <t>AR00001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FILTRE AIR </t>
+  </si>
+  <si>
+    <t>AR00002</t>
+  </si>
+  <si>
+    <t>FILTRE GAZOIL</t>
+  </si>
+  <si>
+    <t>AR00003</t>
+  </si>
+  <si>
+    <t>FILTRE HUILE</t>
+  </si>
+  <si>
+    <t>AR00004</t>
+  </si>
+  <si>
+    <t>FILTRE HABITACLE</t>
+  </si>
+  <si>
+    <t>AR00005</t>
+  </si>
+  <si>
+    <t>FILTRE ESSENCE</t>
+  </si>
+  <si>
+    <t>AR00006</t>
+  </si>
+  <si>
+    <t>KIT DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>AR00008</t>
+  </si>
+  <si>
+    <t>HUILE (L)UNIL  5W40</t>
+  </si>
+  <si>
+    <t>LITRE</t>
+  </si>
+  <si>
+    <t>AR00009</t>
+  </si>
+  <si>
+    <t>LAMPES</t>
+  </si>
+  <si>
+    <t>AR00010</t>
+  </si>
+  <si>
+    <t>BOUGIES DE PRE-CHAUFFAGE</t>
+  </si>
+  <si>
+    <t>AR00011</t>
+  </si>
+  <si>
+    <t>KIT ACCESSOIRES</t>
+  </si>
+  <si>
+    <t>AR00012</t>
+  </si>
+  <si>
+    <t>POMPE A EAU</t>
+  </si>
+  <si>
+    <t>AR00013</t>
+  </si>
+  <si>
+    <t>LIQUIDE DE REFROIDISSEMENT VERT</t>
+  </si>
+  <si>
+    <t>AR00014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUFFLET DE TRANS </t>
+  </si>
+  <si>
+    <t>AR00015</t>
+  </si>
+  <si>
+    <t>CABLE DE SELECTEUR</t>
+  </si>
+  <si>
+    <t>AR00016</t>
+  </si>
+  <si>
+    <t>SILENCIEUX</t>
+  </si>
+  <si>
+    <t>AR00017</t>
+  </si>
+  <si>
+    <t>KIT DE FREIN AR</t>
+  </si>
+  <si>
+    <t>AR00018</t>
+  </si>
+  <si>
+    <t>BATTERIE</t>
+  </si>
+  <si>
+    <t>AR00019</t>
+  </si>
+  <si>
+    <t>CABLE EMBRAYAGE</t>
+  </si>
+  <si>
+    <t>AR00020</t>
+  </si>
+  <si>
+    <t>LIQUIDE DE FREIN</t>
+  </si>
+  <si>
+    <t>AR00021</t>
+  </si>
+  <si>
+    <t>JOINT DE VIDANGE</t>
+  </si>
+  <si>
+    <t>AR00022</t>
+  </si>
+  <si>
+    <t>PLAQUETTES DE FREIN</t>
+  </si>
+  <si>
+    <t>AR00023</t>
+  </si>
+  <si>
+    <t>PLAQUETTES AR</t>
+  </si>
+  <si>
+    <t>AR00024</t>
+  </si>
+  <si>
+    <t>FILTRE A CARBURANT</t>
+  </si>
+  <si>
+    <t>AR00025</t>
+  </si>
+  <si>
+    <t>BALAIS E. G. AR</t>
+  </si>
+  <si>
+    <t>AR00026</t>
+  </si>
+  <si>
+    <t>KIT EMBRAYAGE</t>
+  </si>
+  <si>
+    <t>AR00027</t>
+  </si>
+  <si>
+    <t>BUTEE D'EMBRAYAGE</t>
+  </si>
+  <si>
+    <t>AR00028</t>
+  </si>
+  <si>
+    <t>AMMORTISSEURS AV</t>
+  </si>
+  <si>
+    <t>AR00029</t>
+  </si>
+  <si>
+    <t>AMORTISSEURS AR</t>
+  </si>
+  <si>
+    <t>AR00030</t>
+  </si>
+  <si>
+    <t>JOINT VIDANGE</t>
+  </si>
+  <si>
+    <t>AR00031</t>
+  </si>
+  <si>
+    <t>JOINT DE POMPE A MAIN</t>
+  </si>
+  <si>
+    <t>AR00032</t>
+  </si>
+  <si>
+    <t>COURROIE</t>
+  </si>
+  <si>
+    <t>AR00033</t>
+  </si>
+  <si>
+    <t>SUPPORT MOTEUR</t>
+  </si>
+  <si>
+    <t>AR00034</t>
+  </si>
+  <si>
+    <t>ROTULE AXIALE</t>
+  </si>
+  <si>
+    <t>AR00035</t>
+  </si>
+  <si>
+    <t>ROULEMENT DE ROUE</t>
+  </si>
+  <si>
+    <t>AR00036</t>
+  </si>
+  <si>
+    <t>ROTULE DE DIR</t>
+  </si>
+  <si>
+    <t>AR00037</t>
+  </si>
+  <si>
+    <t>BIELETTES BARRES STABIL</t>
+  </si>
+  <si>
+    <t>AR00038</t>
+  </si>
+  <si>
+    <t>TRIANGLES AV D ET G</t>
+  </si>
+  <si>
+    <t>AR00039</t>
+  </si>
+  <si>
+    <t>TUYAU</t>
+  </si>
+  <si>
+    <t>AR00040</t>
+  </si>
+  <si>
+    <t>ELECTRO VANNES AACOCAS</t>
+  </si>
+  <si>
+    <t>AR00041</t>
+  </si>
+  <si>
+    <t>KIT DE DISQUE AR</t>
+  </si>
+  <si>
+    <t>AR00042</t>
+  </si>
+  <si>
+    <t>TRANSMISSION</t>
+  </si>
+  <si>
+    <t>AR00043</t>
+  </si>
+  <si>
+    <t>MOT</t>
+  </si>
+  <si>
+    <t>AR00044</t>
+  </si>
+  <si>
+    <t>PNEUS MICHELIN</t>
+  </si>
+  <si>
+    <t>AR00045</t>
+  </si>
+  <si>
+    <t>RECHARGE CLIM</t>
+  </si>
+  <si>
+    <t>AR00046</t>
+  </si>
+  <si>
+    <t>COUPELLES AMORTISSEUR AV</t>
+  </si>
+  <si>
+    <t>AR00047</t>
+  </si>
+  <si>
+    <t>SOUFFLET DE DIRECTION</t>
+  </si>
+  <si>
+    <t>AR00048</t>
+  </si>
+  <si>
+    <t>ROTULE DE SUSPENSION</t>
+  </si>
+  <si>
+    <t>AR00049</t>
+  </si>
+  <si>
+    <t>CAOUTCHOUC DE BARRES</t>
+  </si>
+  <si>
+    <t>AR00050</t>
+  </si>
+  <si>
+    <t>AR00168</t>
+  </si>
+  <si>
+    <t>SERRURE</t>
+  </si>
+  <si>
+    <t>AR00169</t>
+  </si>
+  <si>
+    <t>U C H</t>
+  </si>
+  <si>
+    <t>AR00170</t>
+  </si>
+  <si>
+    <t>COUVRE CULASSE</t>
+  </si>
+  <si>
+    <t>AR00171</t>
+  </si>
+  <si>
+    <t>AR00172</t>
+  </si>
+  <si>
+    <t>VERRRIN</t>
+  </si>
+  <si>
+    <t>AR00173</t>
+  </si>
+  <si>
+    <t>CHAINE DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>AR00055</t>
+  </si>
+  <si>
+    <t>PRODUIT NETTOYAGE CLIM</t>
+  </si>
+  <si>
+    <t>AR00056</t>
+  </si>
+  <si>
+    <t>DOUILLE GUIDE BUTEE</t>
+  </si>
+  <si>
+    <t>AR00057</t>
+  </si>
+  <si>
+    <t>MOTEUR OCCASION</t>
+  </si>
+  <si>
+    <t>AR00058</t>
+  </si>
+  <si>
+    <t>JOINT CULASSE</t>
+  </si>
+  <si>
+    <t>AR00059</t>
+  </si>
+  <si>
+    <t>THERMOSTAT</t>
+  </si>
+  <si>
+    <t>AR00060</t>
+  </si>
+  <si>
+    <t>POULLIE ALTERNATEUR</t>
+  </si>
+  <si>
+    <t>AR00061</t>
+  </si>
+  <si>
+    <t>BRAS SUSPENSION</t>
+  </si>
+  <si>
+    <t>AR00062</t>
+  </si>
+  <si>
+    <t>PLOT DE  FIXATION CACHE STYLE</t>
+  </si>
+  <si>
+    <t>AR00063</t>
+  </si>
+  <si>
+    <t>JOINT DE SORTIE DE BOITE</t>
+  </si>
+  <si>
+    <t>AR00064</t>
+  </si>
+  <si>
+    <t>BAGUETTE DE PORTE AR D</t>
+  </si>
+  <si>
+    <t>AR00065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEVE VITRES </t>
+  </si>
+  <si>
+    <t>AR00066</t>
+  </si>
+  <si>
+    <t>FOURNITURE ECHAPPEMENT</t>
+  </si>
+  <si>
+    <t>AR00067</t>
+  </si>
+  <si>
+    <t>RESSORT SUSPENSION</t>
+  </si>
+  <si>
+    <t>AR00068</t>
+  </si>
+  <si>
+    <t>ELECTROVANNE EGR</t>
+  </si>
+  <si>
+    <t>AR00069</t>
+  </si>
+  <si>
+    <t>ELECTROVANNE REGULATRICE CARBURANT</t>
+  </si>
+  <si>
+    <t>AR00070</t>
+  </si>
+  <si>
+    <t>DISQUE DE FREIN AV</t>
+  </si>
+  <si>
+    <t>AR00071</t>
+  </si>
+  <si>
+    <t>PRODUIT ANTI FUMEE</t>
+  </si>
+  <si>
+    <t>AR00072</t>
+  </si>
+  <si>
+    <t>RELAIS PRECHAUFFAGE</t>
+  </si>
+  <si>
+    <t>AR00073</t>
+  </si>
+  <si>
+    <t>CYLINDRE DE ROUE</t>
+  </si>
+  <si>
+    <t>AR00074</t>
+  </si>
+  <si>
+    <t>TAMBOUR</t>
+  </si>
+  <si>
+    <t>AR00075</t>
+  </si>
+  <si>
+    <t>REGLAGE TRAIN AV</t>
+  </si>
+  <si>
+    <t>AR00076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POMPE </t>
+  </si>
+  <si>
+    <t>AR00077</t>
+  </si>
+  <si>
+    <t>MODULE</t>
+  </si>
+  <si>
+    <t>AR00078</t>
+  </si>
+  <si>
+    <t>CONTACTEUR</t>
+  </si>
+  <si>
+    <t>AR00079</t>
+  </si>
+  <si>
+    <t>POUSSOIRES</t>
+  </si>
+  <si>
+    <t>AR00080</t>
+  </si>
+  <si>
+    <t>CULBUTEURS</t>
+  </si>
+  <si>
+    <t>AR00081</t>
+  </si>
+  <si>
+    <t>JOINT C/C</t>
+  </si>
+  <si>
+    <t>AR00082</t>
+  </si>
+  <si>
+    <t>GALET</t>
+  </si>
+  <si>
+    <t>AR00083</t>
+  </si>
+  <si>
+    <t>EJOLIVEUR</t>
+  </si>
+  <si>
+    <t>AR00084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASTER VAC </t>
+  </si>
+  <si>
+    <t>AR00085</t>
+  </si>
+  <si>
+    <t>DISQUES DE FREIN AV.</t>
+  </si>
+  <si>
+    <t>AR00086</t>
+  </si>
+  <si>
+    <t>C/ C POLOT DE TRAIN AR. D. ET G.</t>
+  </si>
+  <si>
+    <t>AR00087</t>
+  </si>
+  <si>
+    <t>JOINT SPI VOLANT</t>
+  </si>
+  <si>
+    <t>AR00088</t>
+  </si>
+  <si>
+    <t>INTER. LEVE VITRE AV. D.</t>
+  </si>
+  <si>
+    <t>AR00089</t>
+  </si>
+  <si>
+    <t>TUBE ECHAPPEMENT</t>
+  </si>
+  <si>
+    <t>AR00090</t>
+  </si>
+  <si>
+    <t>COLLIER</t>
+  </si>
+  <si>
+    <t>AR00091</t>
+  </si>
+  <si>
+    <t>BOCAL REFROIDISSEMENT</t>
+  </si>
+  <si>
+    <t>AR00092</t>
+  </si>
+  <si>
+    <t>SOUFFLET DE CREMAILLERE</t>
+  </si>
+  <si>
+    <t>AR00093</t>
+  </si>
+  <si>
+    <t>SOUPAPES ADD.</t>
+  </si>
+  <si>
+    <t>AR00094</t>
+  </si>
+  <si>
+    <t>CABLE D'ACCEL.</t>
+  </si>
+  <si>
+    <t>AR00095</t>
+  </si>
+  <si>
+    <t>COMPRESSEUR DE CLIM.</t>
+  </si>
+  <si>
+    <t>AR00096</t>
+  </si>
+  <si>
+    <t>COLONNETTES D'ETRIER</t>
+  </si>
+  <si>
+    <t>AR00097</t>
+  </si>
+  <si>
+    <t>CABLAGE PMH</t>
+  </si>
+  <si>
+    <t>AR00098</t>
+  </si>
+  <si>
+    <t>BOITE DE VITESSE</t>
+  </si>
+  <si>
+    <t>AR00099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEUX </t>
+  </si>
+  <si>
+    <t>AR00100</t>
+  </si>
+  <si>
+    <t>JOINT ECHAPPEMENT</t>
+  </si>
+  <si>
+    <t>AR00101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPPORT </t>
+  </si>
+  <si>
+    <t>AR00102</t>
+  </si>
+  <si>
+    <t>INJECTEUR</t>
+  </si>
+  <si>
+    <t>AR00103</t>
+  </si>
+  <si>
+    <t>BOUCHON</t>
+  </si>
+  <si>
+    <t>AR00104</t>
+  </si>
+  <si>
+    <t>POCHETTE RODAGE</t>
+  </si>
+  <si>
+    <t>AR00105</t>
+  </si>
+  <si>
+    <t>CARTER</t>
+  </si>
+  <si>
+    <t>POIGNEE</t>
+  </si>
+  <si>
+    <t>AR00232</t>
+  </si>
+  <si>
+    <t>MICRO MOTEUR DE RAL.</t>
+  </si>
+  <si>
+    <t>AR00233</t>
+  </si>
+  <si>
+    <t>HUILE BVA</t>
+  </si>
+  <si>
+    <t>AR00234</t>
+  </si>
+  <si>
+    <t>EOLISE FAP</t>
+  </si>
+  <si>
+    <t>AR00235</t>
+  </si>
+  <si>
+    <t>TREUIL</t>
+  </si>
+  <si>
+    <t>AR00236</t>
+  </si>
+  <si>
+    <t>AR00110</t>
+  </si>
+  <si>
+    <t>JOINT SPI POULIE MOT.</t>
+  </si>
+  <si>
+    <t>AR00111</t>
+  </si>
+  <si>
+    <t>FLEXIBLE DE FREIN</t>
+  </si>
+  <si>
+    <t>AR00112</t>
+  </si>
+  <si>
+    <t>BOUGIES</t>
+  </si>
+  <si>
+    <t>AR00113</t>
+  </si>
+  <si>
+    <t>MAITRECYLINDRE</t>
+  </si>
+  <si>
+    <t>AR00114</t>
+  </si>
+  <si>
+    <t>PLAQUE IMAT.</t>
+  </si>
+  <si>
+    <t>AR00115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESISTANCE </t>
+  </si>
+  <si>
+    <t>AR00116</t>
+  </si>
+  <si>
+    <t>PARALLELISME</t>
+  </si>
+  <si>
+    <t>AR00117</t>
+  </si>
+  <si>
+    <t>ALTERNATEUR</t>
+  </si>
+  <si>
+    <t>AR00118</t>
+  </si>
+  <si>
+    <t>CAPTEUR PRESSION GASOIL</t>
+  </si>
+  <si>
+    <t>AR00119</t>
+  </si>
+  <si>
+    <t>GLACE DE RETRO</t>
+  </si>
+  <si>
+    <t>AR00120</t>
+  </si>
+  <si>
+    <t>MANCHON</t>
+  </si>
+  <si>
+    <t>AR00121</t>
+  </si>
+  <si>
+    <t>KIT BALAIS E.G.</t>
+  </si>
+  <si>
+    <t>AR00122</t>
+  </si>
+  <si>
+    <t>TURBO</t>
+  </si>
+  <si>
+    <t>AR00123</t>
+  </si>
+  <si>
+    <t>ECHANGEUR AIR/AIR</t>
+  </si>
+  <si>
+    <t>AR00124</t>
+  </si>
+  <si>
+    <t>CABLAGE</t>
+  </si>
+  <si>
+    <t>AR00125</t>
+  </si>
+  <si>
+    <t>SONDE</t>
+  </si>
+  <si>
+    <t>AR00126</t>
+  </si>
+  <si>
+    <t>PILE</t>
+  </si>
+  <si>
+    <t>AR00127</t>
+  </si>
+  <si>
+    <t>POULIE</t>
+  </si>
+  <si>
+    <t>AR00128</t>
+  </si>
+  <si>
+    <t>DURITE</t>
+  </si>
+  <si>
+    <t>AR00129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAUGE </t>
+  </si>
+  <si>
+    <t>AR00130</t>
+  </si>
+  <si>
+    <t>PALIER</t>
+  </si>
+  <si>
+    <t>AR00131</t>
+  </si>
+  <si>
+    <t>PORTE FUSEE</t>
+  </si>
+  <si>
+    <t>AR00132</t>
+  </si>
+  <si>
+    <t>PHARE</t>
+  </si>
+  <si>
+    <t>AR00133</t>
+  </si>
+  <si>
+    <t>JOINT</t>
+  </si>
+  <si>
+    <t>AR00134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMANDE </t>
+  </si>
+  <si>
+    <t>AR00135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGMENT </t>
+  </si>
+  <si>
+    <t>AR00136</t>
+  </si>
+  <si>
+    <t>PRODUIT ANTIFUITE RADIAT.</t>
+  </si>
+  <si>
+    <t>AR00137</t>
+  </si>
+  <si>
+    <t>ACCOUPLEMENT ELAST.</t>
+  </si>
+  <si>
+    <t>AR00138</t>
+  </si>
+  <si>
+    <t>BOUTEILLE DHISI CLIM.</t>
+  </si>
+  <si>
+    <t>AR00139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOBINE </t>
+  </si>
+  <si>
+    <t>AR00140</t>
+  </si>
+  <si>
+    <t>DEMARREUR</t>
+  </si>
+  <si>
+    <t>AR00141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BADGE DE DEMARRAGE </t>
+  </si>
+  <si>
+    <t>AR00142</t>
+  </si>
+  <si>
+    <t>DIG. VALISE</t>
+  </si>
+  <si>
+    <t>AR00143</t>
+  </si>
+  <si>
+    <t>LAVE GLACE</t>
+  </si>
+  <si>
+    <t>AR00144</t>
+  </si>
+  <si>
+    <t>VALVE ELECT.</t>
+  </si>
+  <si>
+    <t>AR00145</t>
+  </si>
+  <si>
+    <t>BLOC CHAUFF</t>
+  </si>
+  <si>
+    <t>AR00146</t>
+  </si>
+  <si>
+    <t>ATTELAGE</t>
+  </si>
+  <si>
+    <t>AR00147</t>
+  </si>
+  <si>
+    <t>TEMOIN</t>
+  </si>
+  <si>
+    <t>AR00148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NET. INJECTION </t>
+  </si>
+  <si>
+    <t>AR00149</t>
+  </si>
+  <si>
+    <t>FUSIBLE</t>
+  </si>
+  <si>
+    <t>AR00150</t>
+  </si>
+  <si>
+    <t>BOITIER DE COUBURE ETOUFOIRE</t>
+  </si>
+  <si>
+    <t>AR00151</t>
+  </si>
+  <si>
+    <t>CONNECTEUR</t>
+  </si>
+  <si>
+    <t>AR00152</t>
+  </si>
+  <si>
+    <t>CONDUIT</t>
+  </si>
+  <si>
+    <t>AR00153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPHERES </t>
+  </si>
+  <si>
+    <t>AR00154</t>
+  </si>
+  <si>
+    <t>TETE D'ALLUMEUR</t>
+  </si>
+  <si>
+    <t>AR00155</t>
+  </si>
+  <si>
+    <t>RACCORD</t>
+  </si>
+  <si>
+    <t>AR00156</t>
+  </si>
+  <si>
+    <t>BLOC FILTRE</t>
+  </si>
+  <si>
+    <t>AR00157</t>
+  </si>
+  <si>
+    <t>CREMAILLER</t>
+  </si>
+  <si>
+    <t>AR00158</t>
+  </si>
+  <si>
+    <t>ECROU</t>
+  </si>
+  <si>
+    <t>AR00159</t>
+  </si>
+  <si>
+    <t>REPARATION ROUE</t>
+  </si>
+  <si>
+    <t>AR00160</t>
+  </si>
+  <si>
+    <t>VANNE</t>
+  </si>
+  <si>
+    <t>AR00161</t>
+  </si>
+  <si>
+    <t>RADITEUR DE CHAUFFAGE</t>
+  </si>
+  <si>
+    <t>AR00162</t>
+  </si>
+  <si>
+    <t>POT INTER.</t>
+  </si>
+  <si>
+    <t>AR00163</t>
+  </si>
+  <si>
+    <t>ELECTROVANNE DE TURBO</t>
+  </si>
+  <si>
+    <t>AR00164</t>
+  </si>
+  <si>
+    <t>JANTE TOLE</t>
+  </si>
+  <si>
+    <t>AR00165</t>
+  </si>
+  <si>
+    <t>U P C</t>
+  </si>
+  <si>
+    <t>AR00166</t>
+  </si>
+  <si>
+    <t>CYLENTBLOC</t>
+  </si>
+  <si>
+    <t>AR00167</t>
+  </si>
+  <si>
+    <t>MOTEUR D'ACTION</t>
+  </si>
   <si>
     <t>HUILE DA</t>
   </si>
@@ -394,1086 +1468,6 @@
   </si>
   <si>
     <t>AR00231</t>
-  </si>
-  <si>
-    <t>POIGNEE</t>
-  </si>
-  <si>
-    <t>AR00232</t>
-  </si>
-  <si>
-    <t>MICRO MOTEUR DE RAL.</t>
-  </si>
-  <si>
-    <t>AR00233</t>
-  </si>
-  <si>
-    <t>HUILE BVA</t>
-  </si>
-  <si>
-    <t>AR00234</t>
-  </si>
-  <si>
-    <t>EOLISE FAP</t>
-  </si>
-  <si>
-    <t>AR00235</t>
-  </si>
-  <si>
-    <t>TREUIL</t>
-  </si>
-  <si>
-    <t>AR00236</t>
-  </si>
-  <si>
-    <t>AR00110</t>
-  </si>
-  <si>
-    <t>JOINT SPI POULIE MOT.</t>
-  </si>
-  <si>
-    <t>AR00111</t>
-  </si>
-  <si>
-    <t>FLEXIBLE DE FREIN</t>
-  </si>
-  <si>
-    <t>AR00112</t>
-  </si>
-  <si>
-    <t>BOUGIES</t>
-  </si>
-  <si>
-    <t>AR00113</t>
-  </si>
-  <si>
-    <t>MAITRECYLINDRE</t>
-  </si>
-  <si>
-    <t>AR00114</t>
-  </si>
-  <si>
-    <t>PLAQUE IMAT.</t>
-  </si>
-  <si>
-    <t>AR00115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESISTANCE </t>
-  </si>
-  <si>
-    <t>AR00116</t>
-  </si>
-  <si>
-    <t>PARALLELISME</t>
-  </si>
-  <si>
-    <t>AR00117</t>
-  </si>
-  <si>
-    <t>ALTERNATEUR</t>
-  </si>
-  <si>
-    <t>AR00118</t>
-  </si>
-  <si>
-    <t>CAPTEUR PRESSION GASOIL</t>
-  </si>
-  <si>
-    <t>AR00119</t>
-  </si>
-  <si>
-    <t>GLACE DE RETRO</t>
-  </si>
-  <si>
-    <t>AR00120</t>
-  </si>
-  <si>
-    <t>MANCHON</t>
-  </si>
-  <si>
-    <t>AR00121</t>
-  </si>
-  <si>
-    <t>KIT BALAIS E.G.</t>
-  </si>
-  <si>
-    <t>AR00122</t>
-  </si>
-  <si>
-    <t>TURBO</t>
-  </si>
-  <si>
-    <t>AR00123</t>
-  </si>
-  <si>
-    <t>ECHANGEUR AIR/AIR</t>
-  </si>
-  <si>
-    <t>AR00124</t>
-  </si>
-  <si>
-    <t>CABLAGE</t>
-  </si>
-  <si>
-    <t>AR00125</t>
-  </si>
-  <si>
-    <t>SONDE</t>
-  </si>
-  <si>
-    <t>AR00126</t>
-  </si>
-  <si>
-    <t>PILE</t>
-  </si>
-  <si>
-    <t>AR00127</t>
-  </si>
-  <si>
-    <t>POULIE</t>
-  </si>
-  <si>
-    <t>AR00128</t>
-  </si>
-  <si>
-    <t>DURITE</t>
-  </si>
-  <si>
-    <t>AR00129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JAUGE </t>
-  </si>
-  <si>
-    <t>AR00130</t>
-  </si>
-  <si>
-    <t>PALIER</t>
-  </si>
-  <si>
-    <t>AR00131</t>
-  </si>
-  <si>
-    <t>PORTE FUSEE</t>
-  </si>
-  <si>
-    <t>AR00132</t>
-  </si>
-  <si>
-    <t>PHARE</t>
-  </si>
-  <si>
-    <t>AR00133</t>
-  </si>
-  <si>
-    <t>JOINT</t>
-  </si>
-  <si>
-    <t>AR00134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMMANDE </t>
-  </si>
-  <si>
-    <t>AR00135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEGMENT </t>
-  </si>
-  <si>
-    <t>AR00136</t>
-  </si>
-  <si>
-    <t>PRODUIT ANTIFUITE RADIAT.</t>
-  </si>
-  <si>
-    <t>AR00137</t>
-  </si>
-  <si>
-    <t>ACCOUPLEMENT ELAST.</t>
-  </si>
-  <si>
-    <t>AR00138</t>
-  </si>
-  <si>
-    <t>BOUTEILLE DHISI CLIM.</t>
-  </si>
-  <si>
-    <t>AR00139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOBINE </t>
-  </si>
-  <si>
-    <t>AR00140</t>
-  </si>
-  <si>
-    <t>DEMARREUR</t>
-  </si>
-  <si>
-    <t>AR00141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BADGE DE DEMARRAGE </t>
-  </si>
-  <si>
-    <t>AR00142</t>
-  </si>
-  <si>
-    <t>DIG. VALISE</t>
-  </si>
-  <si>
-    <t>AR00143</t>
-  </si>
-  <si>
-    <t>LAVE GLACE</t>
-  </si>
-  <si>
-    <t>AR00144</t>
-  </si>
-  <si>
-    <t>VALVE ELECT.</t>
-  </si>
-  <si>
-    <t>AR00145</t>
-  </si>
-  <si>
-    <t>BLOC CHAUFF</t>
-  </si>
-  <si>
-    <t>AR00146</t>
-  </si>
-  <si>
-    <t>ATTELAGE</t>
-  </si>
-  <si>
-    <t>AR00147</t>
-  </si>
-  <si>
-    <t>TEMOIN</t>
-  </si>
-  <si>
-    <t>AR00148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NET. INJECTION </t>
-  </si>
-  <si>
-    <t>AR00149</t>
-  </si>
-  <si>
-    <t>FUSIBLE</t>
-  </si>
-  <si>
-    <t>AR00150</t>
-  </si>
-  <si>
-    <t>BOITIER DE COUBURE ETOUFOIRE</t>
-  </si>
-  <si>
-    <t>AR00151</t>
-  </si>
-  <si>
-    <t>CONNECTEUR</t>
-  </si>
-  <si>
-    <t>AR00152</t>
-  </si>
-  <si>
-    <t>CONDUIT</t>
-  </si>
-  <si>
-    <t>AR00153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPHERES </t>
-  </si>
-  <si>
-    <t>AR00154</t>
-  </si>
-  <si>
-    <t>TETE D'ALLUMEUR</t>
-  </si>
-  <si>
-    <t>AR00155</t>
-  </si>
-  <si>
-    <t>RACCORD</t>
-  </si>
-  <si>
-    <t>AR00156</t>
-  </si>
-  <si>
-    <t>BLOC FILTRE</t>
-  </si>
-  <si>
-    <t>AR00157</t>
-  </si>
-  <si>
-    <t>CREMAILLER</t>
-  </si>
-  <si>
-    <t>AR00158</t>
-  </si>
-  <si>
-    <t>ECROU</t>
-  </si>
-  <si>
-    <t>AR00159</t>
-  </si>
-  <si>
-    <t>REPARATION ROUE</t>
-  </si>
-  <si>
-    <t>AR00160</t>
-  </si>
-  <si>
-    <t>VANNE</t>
-  </si>
-  <si>
-    <t>AR00161</t>
-  </si>
-  <si>
-    <t>RADITEUR DE CHAUFFAGE</t>
-  </si>
-  <si>
-    <t>AR00162</t>
-  </si>
-  <si>
-    <t>POT INTER.</t>
-  </si>
-  <si>
-    <t>AR00163</t>
-  </si>
-  <si>
-    <t>ELECTROVANNE DE TURBO</t>
-  </si>
-  <si>
-    <t>AR00164</t>
-  </si>
-  <si>
-    <t>JANTE TOLE</t>
-  </si>
-  <si>
-    <t>AR00165</t>
-  </si>
-  <si>
-    <t>U P C</t>
-  </si>
-  <si>
-    <t>AR00166</t>
-  </si>
-  <si>
-    <t>CYLENTBLOC</t>
-  </si>
-  <si>
-    <t>AR00167</t>
-  </si>
-  <si>
-    <t>MOTEUR D'ACTION</t>
-  </si>
-  <si>
-    <t>AR00168</t>
-  </si>
-  <si>
-    <t>SERRURE</t>
-  </si>
-  <si>
-    <t>AR00169</t>
-  </si>
-  <si>
-    <t>U C H</t>
-  </si>
-  <si>
-    <t>AR00170</t>
-  </si>
-  <si>
-    <t>COUVRE CULASSE</t>
-  </si>
-  <si>
-    <t>AR00171</t>
-  </si>
-  <si>
-    <t>AR00172</t>
-  </si>
-  <si>
-    <t>VERRRIN</t>
-  </si>
-  <si>
-    <t>AR00173</t>
-  </si>
-  <si>
-    <t>CHAINE DISTRIBUTION</t>
-  </si>
-  <si>
-    <t>AR00055</t>
-  </si>
-  <si>
-    <t>PRODUIT NETTOYAGE CLIM</t>
-  </si>
-  <si>
-    <t>AR00056</t>
-  </si>
-  <si>
-    <t>DOUILLE GUIDE BUTEE</t>
-  </si>
-  <si>
-    <t>AR00057</t>
-  </si>
-  <si>
-    <t>MOTEUR OCCASION</t>
-  </si>
-  <si>
-    <t>AR00058</t>
-  </si>
-  <si>
-    <t>JOINT CULASSE</t>
-  </si>
-  <si>
-    <t>AR00059</t>
-  </si>
-  <si>
-    <t>THERMOSTAT</t>
-  </si>
-  <si>
-    <t>AR00060</t>
-  </si>
-  <si>
-    <t>POULLIE ALTERNATEUR</t>
-  </si>
-  <si>
-    <t>AR00061</t>
-  </si>
-  <si>
-    <t>BRAS SUSPENSION</t>
-  </si>
-  <si>
-    <t>AR00062</t>
-  </si>
-  <si>
-    <t>PLOT DE  FIXATION CACHE STYLE</t>
-  </si>
-  <si>
-    <t>AR00063</t>
-  </si>
-  <si>
-    <t>JOINT DE SORTIE DE BOITE</t>
-  </si>
-  <si>
-    <t>AR00064</t>
-  </si>
-  <si>
-    <t>BAGUETTE DE PORTE AR D</t>
-  </si>
-  <si>
-    <t>AR00065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEVE VITRES </t>
-  </si>
-  <si>
-    <t>AR00066</t>
-  </si>
-  <si>
-    <t>FOURNITURE ECHAPPEMENT</t>
-  </si>
-  <si>
-    <t>AR00067</t>
-  </si>
-  <si>
-    <t>RESSORT SUSPENSION</t>
-  </si>
-  <si>
-    <t>AR00068</t>
-  </si>
-  <si>
-    <t>ELECTROVANNE EGR</t>
-  </si>
-  <si>
-    <t>AR00069</t>
-  </si>
-  <si>
-    <t>ELECTROVANNE REGULATRICE CARBURANT</t>
-  </si>
-  <si>
-    <t>AR00070</t>
-  </si>
-  <si>
-    <t>DISQUE DE FREIN AV</t>
-  </si>
-  <si>
-    <t>AR00071</t>
-  </si>
-  <si>
-    <t>PRODUIT ANTI FUMEE</t>
-  </si>
-  <si>
-    <t>AR00072</t>
-  </si>
-  <si>
-    <t>RELAIS PRECHAUFFAGE</t>
-  </si>
-  <si>
-    <t>AR00073</t>
-  </si>
-  <si>
-    <t>CYLINDRE DE ROUE</t>
-  </si>
-  <si>
-    <t>AR00074</t>
-  </si>
-  <si>
-    <t>TAMBOUR</t>
-  </si>
-  <si>
-    <t>AR00075</t>
-  </si>
-  <si>
-    <t>REGLAGE TRAIN AV</t>
-  </si>
-  <si>
-    <t>AR00076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POMPE </t>
-  </si>
-  <si>
-    <t>AR00077</t>
-  </si>
-  <si>
-    <t>MODULE</t>
-  </si>
-  <si>
-    <t>AR00078</t>
-  </si>
-  <si>
-    <t>CONTACTEUR</t>
-  </si>
-  <si>
-    <t>AR00079</t>
-  </si>
-  <si>
-    <t>POUSSOIRES</t>
-  </si>
-  <si>
-    <t>AR00080</t>
-  </si>
-  <si>
-    <t>CULBUTEURS</t>
-  </si>
-  <si>
-    <t>AR00081</t>
-  </si>
-  <si>
-    <t>JOINT C/C</t>
-  </si>
-  <si>
-    <t>AR00082</t>
-  </si>
-  <si>
-    <t>GALET</t>
-  </si>
-  <si>
-    <t>AR00083</t>
-  </si>
-  <si>
-    <t>EJOLIVEUR</t>
-  </si>
-  <si>
-    <t>AR00084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASTER VAC </t>
-  </si>
-  <si>
-    <t>AR00085</t>
-  </si>
-  <si>
-    <t>DISQUES DE FREIN AV.</t>
-  </si>
-  <si>
-    <t>AR00086</t>
-  </si>
-  <si>
-    <t>C/ C POLOT DE TRAIN AR. D. ET G.</t>
-  </si>
-  <si>
-    <t>AR00087</t>
-  </si>
-  <si>
-    <t>JOINT SPI VOLANT</t>
-  </si>
-  <si>
-    <t>AR00088</t>
-  </si>
-  <si>
-    <t>INTER. LEVE VITRE AV. D.</t>
-  </si>
-  <si>
-    <t>AR00089</t>
-  </si>
-  <si>
-    <t>TUBE ECHAPPEMENT</t>
-  </si>
-  <si>
-    <t>AR00090</t>
-  </si>
-  <si>
-    <t>COLLIER</t>
-  </si>
-  <si>
-    <t>AR00091</t>
-  </si>
-  <si>
-    <t>BOCAL REFROIDISSEMENT</t>
-  </si>
-  <si>
-    <t>AR00092</t>
-  </si>
-  <si>
-    <t>SOUFFLET DE CREMAILLERE</t>
-  </si>
-  <si>
-    <t>AR00093</t>
-  </si>
-  <si>
-    <t>SOUPAPES ADD.</t>
-  </si>
-  <si>
-    <t>AR00094</t>
-  </si>
-  <si>
-    <t>CABLE D'ACCEL.</t>
-  </si>
-  <si>
-    <t>AR00095</t>
-  </si>
-  <si>
-    <t>COMPRESSEUR DE CLIM.</t>
-  </si>
-  <si>
-    <t>AR00096</t>
-  </si>
-  <si>
-    <t>COLONNETTES D'ETRIER</t>
-  </si>
-  <si>
-    <t>AR00097</t>
-  </si>
-  <si>
-    <t>CABLAGE PMH</t>
-  </si>
-  <si>
-    <t>AR00098</t>
-  </si>
-  <si>
-    <t>BOITE DE VITESSE</t>
-  </si>
-  <si>
-    <t>AR00099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEUX </t>
-  </si>
-  <si>
-    <t>AR00100</t>
-  </si>
-  <si>
-    <t>JOINT ECHAPPEMENT</t>
-  </si>
-  <si>
-    <t>AR00101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPPORT </t>
-  </si>
-  <si>
-    <t>AR00102</t>
-  </si>
-  <si>
-    <t>INJECTEUR</t>
-  </si>
-  <si>
-    <t>AR00103</t>
-  </si>
-  <si>
-    <t>BOUCHON</t>
-  </si>
-  <si>
-    <t>AR00104</t>
-  </si>
-  <si>
-    <t>POCHETTE RODAGE</t>
-  </si>
-  <si>
-    <t>AR00105</t>
-  </si>
-  <si>
-    <t>CARTER</t>
-  </si>
-  <si>
-    <t>AR00106</t>
-  </si>
-  <si>
-    <t>C/C. DE BARRE STABI.</t>
-  </si>
-  <si>
-    <t>AR00107</t>
-  </si>
-  <si>
-    <t>FOURCHETTE D'EMBRAYAGE</t>
-  </si>
-  <si>
-    <t>AR00108</t>
-  </si>
-  <si>
-    <t>SILENT BLOC</t>
-  </si>
-  <si>
-    <t>AR00109</t>
-  </si>
-  <si>
-    <t>VOLANT MOTEUR</t>
-  </si>
-  <si>
-    <t>Code article</t>
-  </si>
-  <si>
-    <t>Libellé</t>
-  </si>
-  <si>
-    <t>Type d'article</t>
-  </si>
-  <si>
-    <t>PV HT</t>
-  </si>
-  <si>
-    <t>Unité</t>
-  </si>
-  <si>
-    <t>AR00001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILTRE AIR </t>
-  </si>
-  <si>
-    <t>AR00002</t>
-  </si>
-  <si>
-    <t>FILTRE GAZOIL</t>
-  </si>
-  <si>
-    <t>AR00003</t>
-  </si>
-  <si>
-    <t>FILTRE HUILE</t>
-  </si>
-  <si>
-    <t>AR00004</t>
-  </si>
-  <si>
-    <t>FILTRE HABITACLE</t>
-  </si>
-  <si>
-    <t>AR00005</t>
-  </si>
-  <si>
-    <t>FILTRE ESSENCE</t>
-  </si>
-  <si>
-    <t>AR00006</t>
-  </si>
-  <si>
-    <t>KIT DISTRIBUTION</t>
-  </si>
-  <si>
-    <t>AR00007</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>AR00008</t>
-  </si>
-  <si>
-    <t>HUILE (L)UNIL  5W40</t>
-  </si>
-  <si>
-    <t>LITRE</t>
-  </si>
-  <si>
-    <t>AR00009</t>
-  </si>
-  <si>
-    <t>LAMPES</t>
-  </si>
-  <si>
-    <t>AR00010</t>
-  </si>
-  <si>
-    <t>BOUGIES DE PRE-CHAUFFAGE</t>
-  </si>
-  <si>
-    <t>AR00011</t>
-  </si>
-  <si>
-    <t>KIT ACCESSOIRES</t>
-  </si>
-  <si>
-    <t>AR00012</t>
-  </si>
-  <si>
-    <t>POMPE A EAU</t>
-  </si>
-  <si>
-    <t>AR00013</t>
-  </si>
-  <si>
-    <t>LIQUIDE DE REFROIDISSEMENT VERT</t>
-  </si>
-  <si>
-    <t>AR00014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOUFFLET DE TRANS </t>
-  </si>
-  <si>
-    <t>AR00015</t>
-  </si>
-  <si>
-    <t>CABLE DE SELECTEUR</t>
-  </si>
-  <si>
-    <t>AR00016</t>
-  </si>
-  <si>
-    <t>SILENCIEUX</t>
-  </si>
-  <si>
-    <t>AR00017</t>
-  </si>
-  <si>
-    <t>KIT DE FREIN AR</t>
-  </si>
-  <si>
-    <t>AR00018</t>
-  </si>
-  <si>
-    <t>BATTERIE</t>
-  </si>
-  <si>
-    <t>AR00019</t>
-  </si>
-  <si>
-    <t>CABLE EMBRAYAGE</t>
-  </si>
-  <si>
-    <t>AR00020</t>
-  </si>
-  <si>
-    <t>LIQUIDE DE FREIN</t>
-  </si>
-  <si>
-    <t>AR00021</t>
-  </si>
-  <si>
-    <t>JOINT DE VIDANGE</t>
-  </si>
-  <si>
-    <t>AR00022</t>
-  </si>
-  <si>
-    <t>PLAQUETTES DE FREIN</t>
-  </si>
-  <si>
-    <t>AR00023</t>
-  </si>
-  <si>
-    <t>PLAQUETTES AR</t>
-  </si>
-  <si>
-    <t>AR00024</t>
-  </si>
-  <si>
-    <t>FILTRE A CARBURANT</t>
-  </si>
-  <si>
-    <t>AR00025</t>
-  </si>
-  <si>
-    <t>BALAIS E. G. AR</t>
-  </si>
-  <si>
-    <t>AR00026</t>
-  </si>
-  <si>
-    <t>KIT EMBRAYAGE</t>
-  </si>
-  <si>
-    <t>AR00027</t>
-  </si>
-  <si>
-    <t>BUTEE D'EMBRAYAGE</t>
-  </si>
-  <si>
-    <t>AR00028</t>
-  </si>
-  <si>
-    <t>AMMORTISSEURS AV</t>
-  </si>
-  <si>
-    <t>AR00029</t>
-  </si>
-  <si>
-    <t>AMORTISSEURS AR</t>
-  </si>
-  <si>
-    <t>AR00030</t>
-  </si>
-  <si>
-    <t>JOINT VIDANGE</t>
-  </si>
-  <si>
-    <t>AR00031</t>
-  </si>
-  <si>
-    <t>JOINT DE POMPE A MAIN</t>
-  </si>
-  <si>
-    <t>AR00032</t>
-  </si>
-  <si>
-    <t>COURROIE</t>
-  </si>
-  <si>
-    <t>AR00033</t>
-  </si>
-  <si>
-    <t>SUPPORT MOTEUR</t>
-  </si>
-  <si>
-    <t>AR00034</t>
-  </si>
-  <si>
-    <t>ROTULE AXIALE</t>
-  </si>
-  <si>
-    <t>AR00035</t>
-  </si>
-  <si>
-    <t>ROULEMENT DE ROUE</t>
-  </si>
-  <si>
-    <t>AR00036</t>
-  </si>
-  <si>
-    <t>ROTULE DE DIR</t>
-  </si>
-  <si>
-    <t>AR00037</t>
-  </si>
-  <si>
-    <t>BIELETTES BARRES STABIL</t>
-  </si>
-  <si>
-    <t>AR00038</t>
-  </si>
-  <si>
-    <t>TRIANGLES AV D ET G</t>
-  </si>
-  <si>
-    <t>AR00039</t>
-  </si>
-  <si>
-    <t>TUYAU</t>
-  </si>
-  <si>
-    <t>AR00040</t>
-  </si>
-  <si>
-    <t>ELECTRO VANNES AACOCAS</t>
-  </si>
-  <si>
-    <t>AR00041</t>
-  </si>
-  <si>
-    <t>KIT DE DISQUE AR</t>
-  </si>
-  <si>
-    <t>AR00042</t>
-  </si>
-  <si>
-    <t>TRANSMISSION</t>
-  </si>
-  <si>
-    <t>AR00043</t>
-  </si>
-  <si>
-    <t>MOT</t>
-  </si>
-  <si>
-    <t>AR00044</t>
-  </si>
-  <si>
-    <t>PNEUS MICHELIN</t>
-  </si>
-  <si>
-    <t>AR00045</t>
-  </si>
-  <si>
-    <t>RECHARGE CLIM</t>
-  </si>
-  <si>
-    <t>AR00046</t>
-  </si>
-  <si>
-    <t>COUPELLES AMORTISSEUR AV</t>
-  </si>
-  <si>
-    <t>AR00047</t>
-  </si>
-  <si>
-    <t>SOUFFLET DE DIRECTION</t>
-  </si>
-  <si>
-    <t>AR00048</t>
-  </si>
-  <si>
-    <t>ROTULE DE SUSPENSION</t>
-  </si>
-  <si>
-    <t>AR00049</t>
-  </si>
-  <si>
-    <t>CAOUTCHOUC DE BARRES</t>
-  </si>
-  <si>
-    <t>AR00050</t>
-  </si>
-  <si>
-    <t>BIELETTE GMP</t>
-  </si>
-  <si>
-    <t>AR00051</t>
-  </si>
-  <si>
-    <t>SOUFFLET AMORTISSEUR</t>
-  </si>
-  <si>
-    <t>AR00052</t>
-  </si>
-  <si>
-    <t>CAPTEUR PMH</t>
-  </si>
-  <si>
-    <t>AR00053</t>
-  </si>
-  <si>
-    <t>CABLE FREIN A MAIN</t>
-  </si>
-  <si>
-    <t>AR00054</t>
   </si>
 </sst>
 </file>
@@ -1841,35 +1835,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:E240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>372</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>373</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>374</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>375</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>376</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>377</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1880,10 +1876,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>379</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1894,10 +1890,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1908,10 +1904,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>384</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1922,10 +1918,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>385</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1936,10 +1932,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>387</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>388</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1950,41 +1946,41 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>389</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>390</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>9.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>391</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>392</v>
+        <v>37</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>394</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>395</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1995,10 +1991,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>397</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2009,10 +2005,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2023,41 +2019,41 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>400</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>401</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3.5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>402</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>403</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>404</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>405</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2068,10 +2064,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>406</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>407</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2082,10 +2078,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>408</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>409</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -2096,10 +2092,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>410</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>411</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -2110,10 +2106,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>412</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>413</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2124,38 +2120,38 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>414</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>415</v>
+        <v>59</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>416</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>417</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>418</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>419</v>
+        <v>63</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2166,10 +2162,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>420</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>421</v>
+        <v>65</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2180,10 +2176,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>422</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>423</v>
+        <v>67</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2194,10 +2190,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>424</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>425</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2208,10 +2204,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>426</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>427</v>
+        <v>71</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2222,10 +2218,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>428</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>429</v>
+        <v>73</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2236,10 +2232,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>430</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>431</v>
+        <v>75</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2250,10 +2246,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>432</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>433</v>
+        <v>77</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2264,10 +2260,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>434</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2278,10 +2274,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>436</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>437</v>
+        <v>81</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2292,10 +2288,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>438</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>439</v>
+        <v>83</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2306,10 +2302,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>440</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>441</v>
+        <v>85</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -2320,10 +2316,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>442</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>443</v>
+        <v>87</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -2334,10 +2330,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>444</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>445</v>
+        <v>89</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -2348,10 +2344,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>446</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>447</v>
+        <v>91</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2362,10 +2358,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>448</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>449</v>
+        <v>93</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2376,10 +2372,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>450</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>451</v>
+        <v>95</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2390,10 +2386,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>452</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>453</v>
+        <v>97</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2404,10 +2400,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>454</v>
+        <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>455</v>
+        <v>99</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2418,10 +2414,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>456</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>457</v>
+        <v>101</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2432,10 +2428,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>458</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>459</v>
+        <v>103</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -2446,10 +2442,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>460</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>461</v>
+        <v>105</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -2460,10 +2456,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>462</v>
+        <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>463</v>
+        <v>107</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -2474,10 +2470,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>464</v>
+        <v>108</v>
       </c>
       <c r="B45" t="s">
-        <v>465</v>
+        <v>109</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -2488,10 +2484,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>466</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>467</v>
+        <v>111</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2502,10 +2498,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>468</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
-        <v>469</v>
+        <v>113</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -2516,10 +2512,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>470</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>471</v>
+        <v>115</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2530,10 +2526,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>472</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>473</v>
+        <v>117</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2544,10 +2540,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>474</v>
+        <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>475</v>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2558,10 +2554,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="B51" t="s">
-        <v>477</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2572,10 +2568,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>478</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>479</v>
+        <v>4</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2586,10 +2582,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>481</v>
+        <v>6</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2600,10 +2596,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>482</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
-        <v>483</v>
+        <v>129</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2614,10 +2610,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>484</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s">
-        <v>261</v>
+        <v>131</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2628,10 +2624,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>262</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2642,10 +2638,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>264</v>
+        <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>265</v>
+        <v>135</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2656,10 +2652,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>266</v>
+        <v>136</v>
       </c>
       <c r="B58" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2670,10 +2666,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>268</v>
+        <v>138</v>
       </c>
       <c r="B59" t="s">
-        <v>269</v>
+        <v>139</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2684,10 +2680,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>270</v>
+        <v>140</v>
       </c>
       <c r="B60" t="s">
-        <v>271</v>
+        <v>141</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2698,10 +2694,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>272</v>
+        <v>142</v>
       </c>
       <c r="B61" t="s">
-        <v>273</v>
+        <v>143</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2712,10 +2708,10 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>274</v>
+        <v>144</v>
       </c>
       <c r="B62" t="s">
-        <v>275</v>
+        <v>145</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -2726,10 +2722,10 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>276</v>
+        <v>146</v>
       </c>
       <c r="B63" t="s">
-        <v>277</v>
+        <v>147</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2740,10 +2736,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>278</v>
+        <v>148</v>
       </c>
       <c r="B64" t="s">
-        <v>279</v>
+        <v>149</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2754,10 +2750,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="B65" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2768,10 +2764,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>282</v>
+        <v>152</v>
       </c>
       <c r="B66" t="s">
-        <v>283</v>
+        <v>153</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2782,10 +2778,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>284</v>
+        <v>154</v>
       </c>
       <c r="B67" t="s">
-        <v>285</v>
+        <v>155</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2796,10 +2792,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>286</v>
+        <v>156</v>
       </c>
       <c r="B68" t="s">
-        <v>287</v>
+        <v>157</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2810,10 +2806,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>288</v>
+        <v>158</v>
       </c>
       <c r="B69" t="s">
-        <v>289</v>
+        <v>159</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2824,10 +2820,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s">
-        <v>291</v>
+        <v>161</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2838,10 +2834,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>292</v>
+        <v>162</v>
       </c>
       <c r="B71" t="s">
-        <v>293</v>
+        <v>163</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2852,10 +2848,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>294</v>
+        <v>164</v>
       </c>
       <c r="B72" t="s">
-        <v>295</v>
+        <v>165</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2866,10 +2862,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>296</v>
+        <v>166</v>
       </c>
       <c r="B73" t="s">
-        <v>297</v>
+        <v>167</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2880,10 +2876,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>298</v>
+        <v>168</v>
       </c>
       <c r="B74" t="s">
-        <v>299</v>
+        <v>169</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2894,10 +2890,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="B75" t="s">
-        <v>301</v>
+        <v>171</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2908,10 +2904,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>302</v>
+        <v>172</v>
       </c>
       <c r="B76" t="s">
-        <v>303</v>
+        <v>173</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2922,10 +2918,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>304</v>
+        <v>174</v>
       </c>
       <c r="B77" t="s">
-        <v>305</v>
+        <v>175</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2936,10 +2932,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>306</v>
+        <v>176</v>
       </c>
       <c r="B78" t="s">
-        <v>307</v>
+        <v>177</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2950,10 +2946,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>308</v>
+        <v>178</v>
       </c>
       <c r="B79" t="s">
-        <v>309</v>
+        <v>179</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2964,10 +2960,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="B80" t="s">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2978,10 +2974,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="B81" t="s">
-        <v>313</v>
+        <v>183</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2992,10 +2988,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>314</v>
+        <v>184</v>
       </c>
       <c r="B82" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3006,10 +3002,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>316</v>
+        <v>186</v>
       </c>
       <c r="B83" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -3020,10 +3016,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>318</v>
+        <v>188</v>
       </c>
       <c r="B84" t="s">
-        <v>319</v>
+        <v>189</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -3034,10 +3030,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="B85" t="s">
-        <v>321</v>
+        <v>191</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -3048,10 +3044,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>322</v>
+        <v>192</v>
       </c>
       <c r="B86" t="s">
-        <v>323</v>
+        <v>193</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -3062,10 +3058,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>324</v>
+        <v>194</v>
       </c>
       <c r="B87" t="s">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -3076,10 +3072,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>326</v>
+        <v>196</v>
       </c>
       <c r="B88" t="s">
-        <v>327</v>
+        <v>197</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -3090,10 +3086,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>328</v>
+        <v>198</v>
       </c>
       <c r="B89" t="s">
-        <v>329</v>
+        <v>199</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -3104,10 +3100,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="B90" t="s">
-        <v>331</v>
+        <v>201</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -3118,10 +3114,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>332</v>
+        <v>202</v>
       </c>
       <c r="B91" t="s">
-        <v>333</v>
+        <v>203</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -3132,10 +3128,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>334</v>
+        <v>204</v>
       </c>
       <c r="B92" t="s">
-        <v>335</v>
+        <v>205</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -3146,10 +3142,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>336</v>
+        <v>206</v>
       </c>
       <c r="B93" t="s">
-        <v>337</v>
+        <v>207</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -3160,10 +3156,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>338</v>
+        <v>208</v>
       </c>
       <c r="B94" t="s">
-        <v>339</v>
+        <v>209</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -3174,10 +3170,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>340</v>
+        <v>210</v>
       </c>
       <c r="B95" t="s">
-        <v>341</v>
+        <v>211</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -3188,10 +3184,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>342</v>
+        <v>212</v>
       </c>
       <c r="B96" t="s">
-        <v>343</v>
+        <v>213</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -3202,10 +3198,10 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>344</v>
+        <v>214</v>
       </c>
       <c r="B97" t="s">
-        <v>345</v>
+        <v>215</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -3216,10 +3212,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="B98" t="s">
-        <v>347</v>
+        <v>217</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -3230,10 +3226,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>348</v>
+        <v>218</v>
       </c>
       <c r="B99" t="s">
-        <v>349</v>
+        <v>219</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -3244,10 +3240,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="B100" t="s">
-        <v>351</v>
+        <v>221</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -3258,10 +3254,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>352</v>
+        <v>222</v>
       </c>
       <c r="B101" t="s">
-        <v>353</v>
+        <v>223</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -3272,10 +3268,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>354</v>
+        <v>224</v>
       </c>
       <c r="B102" t="s">
-        <v>355</v>
+        <v>225</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -3286,10 +3282,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>356</v>
+        <v>226</v>
       </c>
       <c r="B103" t="s">
-        <v>357</v>
+        <v>227</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -3300,10 +3296,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>358</v>
+        <v>228</v>
       </c>
       <c r="B104" t="s">
-        <v>359</v>
+        <v>229</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -3314,10 +3310,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>360</v>
+        <v>230</v>
       </c>
       <c r="B105" t="s">
-        <v>361</v>
+        <v>231</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -3328,10 +3324,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>362</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>363</v>
+        <v>9</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -3342,10 +3338,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>364</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>365</v>
+        <v>11</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -3356,10 +3352,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>366</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
-        <v>367</v>
+        <v>13</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -3370,10 +3366,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>368</v>
+        <v>14</v>
       </c>
       <c r="B109" t="s">
-        <v>369</v>
+        <v>15</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -3384,10 +3380,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>370</v>
+        <v>242</v>
       </c>
       <c r="B110" t="s">
-        <v>371</v>
+        <v>243</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -3398,10 +3394,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="B111" t="s">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -3412,10 +3408,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="B112" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -3426,10 +3422,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>139</v>
+        <v>248</v>
       </c>
       <c r="B113" t="s">
-        <v>140</v>
+        <v>249</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -3440,10 +3436,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="B114" t="s">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -3454,10 +3450,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>143</v>
+        <v>252</v>
       </c>
       <c r="B115" t="s">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -3468,10 +3464,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="B116" t="s">
-        <v>146</v>
+        <v>255</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -3482,10 +3478,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="B117" t="s">
-        <v>148</v>
+        <v>257</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -3496,10 +3492,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="B118" t="s">
-        <v>150</v>
+        <v>259</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -3510,10 +3506,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="B119" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -3524,10 +3520,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="B120" t="s">
-        <v>154</v>
+        <v>263</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -3538,10 +3534,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>155</v>
+        <v>264</v>
       </c>
       <c r="B121" t="s">
-        <v>156</v>
+        <v>265</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -3552,10 +3548,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>157</v>
+        <v>266</v>
       </c>
       <c r="B122" t="s">
-        <v>158</v>
+        <v>267</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -3566,10 +3562,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>159</v>
+        <v>268</v>
       </c>
       <c r="B123" t="s">
-        <v>160</v>
+        <v>269</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -3580,10 +3576,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>161</v>
+        <v>270</v>
       </c>
       <c r="B124" t="s">
-        <v>162</v>
+        <v>271</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -3594,10 +3590,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>163</v>
+        <v>272</v>
       </c>
       <c r="B125" t="s">
-        <v>164</v>
+        <v>273</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -3608,10 +3604,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>165</v>
+        <v>274</v>
       </c>
       <c r="B126" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -3622,10 +3618,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>276</v>
       </c>
       <c r="B127" t="s">
-        <v>168</v>
+        <v>277</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -3636,10 +3632,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>169</v>
+        <v>278</v>
       </c>
       <c r="B128" t="s">
-        <v>170</v>
+        <v>279</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -3650,10 +3646,10 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>171</v>
+        <v>280</v>
       </c>
       <c r="B129" t="s">
-        <v>172</v>
+        <v>281</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -3664,10 +3660,10 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>173</v>
+        <v>282</v>
       </c>
       <c r="B130" t="s">
-        <v>174</v>
+        <v>283</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -3678,10 +3674,10 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>175</v>
+        <v>284</v>
       </c>
       <c r="B131" t="s">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3692,10 +3688,10 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>177</v>
+        <v>286</v>
       </c>
       <c r="B132" t="s">
-        <v>178</v>
+        <v>287</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3706,10 +3702,10 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>179</v>
+        <v>288</v>
       </c>
       <c r="B133" t="s">
-        <v>180</v>
+        <v>289</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -3720,10 +3716,10 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>181</v>
+        <v>290</v>
       </c>
       <c r="B134" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -3734,10 +3730,10 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>183</v>
+        <v>292</v>
       </c>
       <c r="B135" t="s">
-        <v>184</v>
+        <v>293</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -3748,10 +3744,10 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>185</v>
+        <v>294</v>
       </c>
       <c r="B136" t="s">
-        <v>186</v>
+        <v>295</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -3762,10 +3758,10 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>187</v>
+        <v>296</v>
       </c>
       <c r="B137" t="s">
-        <v>188</v>
+        <v>297</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -3776,10 +3772,10 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>189</v>
+        <v>298</v>
       </c>
       <c r="B138" t="s">
-        <v>190</v>
+        <v>299</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -3790,10 +3786,10 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>191</v>
+        <v>300</v>
       </c>
       <c r="B139" t="s">
-        <v>192</v>
+        <v>301</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3804,10 +3800,10 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>193</v>
+        <v>302</v>
       </c>
       <c r="B140" t="s">
-        <v>194</v>
+        <v>303</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -3818,10 +3814,10 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>195</v>
+        <v>304</v>
       </c>
       <c r="B141" t="s">
-        <v>196</v>
+        <v>305</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3832,55 +3828,55 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>197</v>
+        <v>306</v>
       </c>
       <c r="B142" t="s">
-        <v>198</v>
+        <v>307</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>199</v>
+        <v>308</v>
       </c>
       <c r="B143" t="s">
-        <v>200</v>
+        <v>309</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D143">
+        <v>1.5</v>
+      </c>
+      <c r="E143" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>201</v>
+        <v>310</v>
       </c>
       <c r="B144" t="s">
-        <v>202</v>
+        <v>311</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144">
-        <v>1.5</v>
-      </c>
-      <c r="E144" t="s">
-        <v>393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>203</v>
+        <v>312</v>
       </c>
       <c r="B145" t="s">
-        <v>204</v>
+        <v>313</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3891,10 +3887,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>205</v>
+        <v>314</v>
       </c>
       <c r="B146" t="s">
-        <v>206</v>
+        <v>315</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -3905,10 +3901,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>207</v>
+        <v>316</v>
       </c>
       <c r="B147" t="s">
-        <v>208</v>
+        <v>317</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3919,10 +3915,10 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>209</v>
+        <v>318</v>
       </c>
       <c r="B148" t="s">
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3933,10 +3929,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>211</v>
+        <v>320</v>
       </c>
       <c r="B149" t="s">
-        <v>212</v>
+        <v>321</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -3947,10 +3943,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="B150" t="s">
-        <v>214</v>
+        <v>323</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -3961,10 +3957,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>215</v>
+        <v>324</v>
       </c>
       <c r="B151" t="s">
-        <v>216</v>
+        <v>325</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -3975,10 +3971,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>217</v>
+        <v>326</v>
       </c>
       <c r="B152" t="s">
-        <v>218</v>
+        <v>327</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -3989,10 +3985,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>219</v>
+        <v>328</v>
       </c>
       <c r="B153" t="s">
-        <v>220</v>
+        <v>329</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -4003,10 +3999,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>221</v>
+        <v>330</v>
       </c>
       <c r="B154" t="s">
-        <v>222</v>
+        <v>331</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -4017,10 +4013,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>223</v>
+        <v>332</v>
       </c>
       <c r="B155" t="s">
-        <v>224</v>
+        <v>333</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -4031,10 +4027,10 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>225</v>
+        <v>334</v>
       </c>
       <c r="B156" t="s">
-        <v>226</v>
+        <v>335</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -4045,10 +4041,10 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>227</v>
+        <v>336</v>
       </c>
       <c r="B157" t="s">
-        <v>228</v>
+        <v>337</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -4059,10 +4055,10 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>229</v>
+        <v>338</v>
       </c>
       <c r="B158" t="s">
-        <v>230</v>
+        <v>339</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -4073,10 +4069,10 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>231</v>
+        <v>340</v>
       </c>
       <c r="B159" t="s">
-        <v>232</v>
+        <v>341</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -4087,10 +4083,10 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>233</v>
+        <v>342</v>
       </c>
       <c r="B160" t="s">
-        <v>234</v>
+        <v>343</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -4101,10 +4097,10 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>235</v>
+        <v>344</v>
       </c>
       <c r="B161" t="s">
-        <v>236</v>
+        <v>345</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -4115,10 +4111,10 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>237</v>
+        <v>346</v>
       </c>
       <c r="B162" t="s">
-        <v>238</v>
+        <v>347</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -4129,10 +4125,10 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>239</v>
+        <v>348</v>
       </c>
       <c r="B163" t="s">
-        <v>240</v>
+        <v>349</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -4143,10 +4139,10 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>241</v>
+        <v>350</v>
       </c>
       <c r="B164" t="s">
-        <v>242</v>
+        <v>351</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -4157,10 +4153,10 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>243</v>
+        <v>352</v>
       </c>
       <c r="B165" t="s">
-        <v>244</v>
+        <v>353</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -4171,10 +4167,10 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>245</v>
+        <v>354</v>
       </c>
       <c r="B166" t="s">
-        <v>246</v>
+        <v>355</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -4185,10 +4181,10 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>247</v>
+        <v>356</v>
       </c>
       <c r="B167" t="s">
-        <v>248</v>
+        <v>357</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -4199,10 +4195,10 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="B168" t="s">
-        <v>250</v>
+        <v>120</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -4213,10 +4209,10 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>251</v>
+        <v>121</v>
       </c>
       <c r="B169" t="s">
-        <v>252</v>
+        <v>122</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -4227,10 +4223,10 @@
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>253</v>
+        <v>123</v>
       </c>
       <c r="B170" t="s">
-        <v>254</v>
+        <v>124</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -4241,10 +4237,10 @@
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>255</v>
+        <v>125</v>
       </c>
       <c r="B171" t="s">
-        <v>256</v>
+        <v>315</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -4255,10 +4251,10 @@
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>257</v>
+        <v>126</v>
       </c>
       <c r="B172" t="s">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -4269,10 +4265,10 @@
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c r="B173" t="s">
-        <v>259</v>
+        <v>367</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -4283,10 +4279,10 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>260</v>
+        <v>368</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
+        <v>369</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -4297,10 +4293,10 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>10</v>
+        <v>370</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -4311,10 +4307,10 @@
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>12</v>
+        <v>372</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>373</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -4325,10 +4321,10 @@
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>14</v>
+        <v>374</v>
       </c>
       <c r="B177" t="s">
-        <v>15</v>
+        <v>375</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -4339,10 +4335,10 @@
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>16</v>
+        <v>376</v>
       </c>
       <c r="B178" t="s">
-        <v>17</v>
+        <v>377</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -4353,10 +4349,10 @@
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>18</v>
+        <v>378</v>
       </c>
       <c r="B179" t="s">
-        <v>19</v>
+        <v>379</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -4367,10 +4363,10 @@
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>20</v>
+        <v>380</v>
       </c>
       <c r="B180" t="s">
-        <v>21</v>
+        <v>381</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -4381,10 +4377,10 @@
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>22</v>
+        <v>382</v>
       </c>
       <c r="B181" t="s">
-        <v>23</v>
+        <v>383</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -4395,10 +4391,10 @@
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>384</v>
       </c>
       <c r="B182" t="s">
-        <v>25</v>
+        <v>385</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -4409,10 +4405,10 @@
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>26</v>
+        <v>386</v>
       </c>
       <c r="B183" t="s">
-        <v>27</v>
+        <v>387</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -4423,10 +4419,10 @@
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>28</v>
+        <v>388</v>
       </c>
       <c r="B184" t="s">
-        <v>29</v>
+        <v>389</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -4437,10 +4433,10 @@
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>30</v>
+        <v>390</v>
       </c>
       <c r="B185" t="s">
-        <v>31</v>
+        <v>391</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -4451,10 +4447,10 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>32</v>
+        <v>392</v>
       </c>
       <c r="B186" t="s">
-        <v>33</v>
+        <v>393</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -4465,10 +4461,10 @@
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>34</v>
+        <v>394</v>
       </c>
       <c r="B187" t="s">
-        <v>35</v>
+        <v>395</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -4479,10 +4475,10 @@
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>36</v>
+        <v>396</v>
       </c>
       <c r="B188" t="s">
-        <v>37</v>
+        <v>397</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -4493,10 +4489,10 @@
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>38</v>
+        <v>398</v>
       </c>
       <c r="B189" t="s">
-        <v>39</v>
+        <v>399</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -4507,10 +4503,10 @@
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="B190" t="s">
-        <v>41</v>
+        <v>401</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -4521,10 +4517,10 @@
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>42</v>
+        <v>402</v>
       </c>
       <c r="B191" t="s">
-        <v>43</v>
+        <v>403</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -4535,10 +4531,10 @@
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>44</v>
+        <v>404</v>
       </c>
       <c r="B192" t="s">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -4549,10 +4545,10 @@
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>46</v>
+        <v>406</v>
       </c>
       <c r="B193" t="s">
-        <v>47</v>
+        <v>407</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -4563,10 +4559,10 @@
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>48</v>
+        <v>408</v>
       </c>
       <c r="B194" t="s">
-        <v>49</v>
+        <v>409</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -4577,10 +4573,10 @@
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>50</v>
+        <v>410</v>
       </c>
       <c r="B195" t="s">
-        <v>51</v>
+        <v>411</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -4591,10 +4587,10 @@
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>52</v>
+        <v>412</v>
       </c>
       <c r="B196" t="s">
-        <v>53</v>
+        <v>413</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -4605,10 +4601,10 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>54</v>
+        <v>414</v>
       </c>
       <c r="B197" t="s">
-        <v>55</v>
+        <v>415</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -4619,10 +4615,10 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>56</v>
+        <v>416</v>
       </c>
       <c r="B198" t="s">
-        <v>57</v>
+        <v>417</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -4633,10 +4629,10 @@
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>58</v>
+        <v>418</v>
       </c>
       <c r="B199" t="s">
-        <v>59</v>
+        <v>419</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -4647,10 +4643,10 @@
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>60</v>
+        <v>420</v>
       </c>
       <c r="B200" t="s">
-        <v>61</v>
+        <v>421</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -4661,10 +4657,10 @@
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>62</v>
+        <v>422</v>
       </c>
       <c r="B201" t="s">
-        <v>63</v>
+        <v>423</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -4675,10 +4671,10 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>64</v>
+        <v>424</v>
       </c>
       <c r="B202" t="s">
-        <v>65</v>
+        <v>425</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -4689,10 +4685,10 @@
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>66</v>
+        <v>426</v>
       </c>
       <c r="B203" t="s">
-        <v>67</v>
+        <v>427</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -4703,10 +4699,10 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>68</v>
+        <v>428</v>
       </c>
       <c r="B204" t="s">
-        <v>69</v>
+        <v>429</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -4717,10 +4713,10 @@
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>70</v>
+        <v>430</v>
       </c>
       <c r="B205" t="s">
-        <v>71</v>
+        <v>431</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -4731,10 +4727,10 @@
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>72</v>
+        <v>432</v>
       </c>
       <c r="B206" t="s">
-        <v>73</v>
+        <v>433</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -4745,10 +4741,10 @@
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>74</v>
+        <v>434</v>
       </c>
       <c r="B207" t="s">
-        <v>75</v>
+        <v>435</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -4759,10 +4755,10 @@
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>76</v>
+        <v>436</v>
       </c>
       <c r="B208" t="s">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -4773,10 +4769,10 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" t="s">
-        <v>78</v>
+        <v>438</v>
       </c>
       <c r="B209" t="s">
-        <v>79</v>
+        <v>439</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -4787,10 +4783,10 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>80</v>
+        <v>440</v>
       </c>
       <c r="B210" t="s">
-        <v>81</v>
+        <v>441</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -4801,10 +4797,10 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>82</v>
+        <v>442</v>
       </c>
       <c r="B211" t="s">
-        <v>83</v>
+        <v>443</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -4815,10 +4811,10 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>84</v>
+        <v>444</v>
       </c>
       <c r="B212" t="s">
-        <v>85</v>
+        <v>445</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -4829,38 +4825,38 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>86</v>
+        <v>446</v>
       </c>
       <c r="B213" t="s">
-        <v>87</v>
+        <v>447</v>
       </c>
       <c r="C213">
         <v>0</v>
       </c>
       <c r="D213">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>88</v>
+        <v>448</v>
       </c>
       <c r="B214" t="s">
-        <v>89</v>
+        <v>449</v>
       </c>
       <c r="C214">
         <v>0</v>
       </c>
       <c r="D214">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>90</v>
+        <v>450</v>
       </c>
       <c r="B215" t="s">
-        <v>91</v>
+        <v>451</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -4871,10 +4867,10 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" t="s">
-        <v>92</v>
+        <v>452</v>
       </c>
       <c r="B216" t="s">
-        <v>93</v>
+        <v>453</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -4885,10 +4881,10 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>94</v>
+        <v>454</v>
       </c>
       <c r="B217" t="s">
-        <v>95</v>
+        <v>455</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -4899,10 +4895,10 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>96</v>
+        <v>456</v>
       </c>
       <c r="B218" t="s">
-        <v>97</v>
+        <v>457</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -4913,41 +4909,41 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>98</v>
+        <v>458</v>
       </c>
       <c r="B219" t="s">
-        <v>99</v>
+        <v>459</v>
       </c>
       <c r="C219">
         <v>0</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="E219" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>100</v>
+        <v>460</v>
       </c>
       <c r="B220" t="s">
-        <v>101</v>
+        <v>461</v>
       </c>
       <c r="C220">
         <v>0</v>
       </c>
       <c r="D220">
-        <v>35</v>
-      </c>
-      <c r="E220" t="s">
-        <v>393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>102</v>
+        <v>462</v>
       </c>
       <c r="B221" t="s">
-        <v>103</v>
+        <v>463</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -4958,10 +4954,10 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>104</v>
+        <v>464</v>
       </c>
       <c r="B222" t="s">
-        <v>105</v>
+        <v>465</v>
       </c>
       <c r="C222">
         <v>0</v>
@@ -4972,10 +4968,10 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>106</v>
+        <v>466</v>
       </c>
       <c r="B223" t="s">
-        <v>107</v>
+        <v>467</v>
       </c>
       <c r="C223">
         <v>0</v>
@@ -4986,10 +4982,10 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" t="s">
-        <v>108</v>
+        <v>468</v>
       </c>
       <c r="B224" t="s">
-        <v>109</v>
+        <v>469</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -5000,10 +4996,10 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>110</v>
+        <v>470</v>
       </c>
       <c r="B225" t="s">
-        <v>111</v>
+        <v>471</v>
       </c>
       <c r="C225">
         <v>0</v>
@@ -5014,10 +5010,10 @@
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>112</v>
+        <v>472</v>
       </c>
       <c r="B226" t="s">
-        <v>113</v>
+        <v>473</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -5028,10 +5024,10 @@
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>114</v>
+        <v>474</v>
       </c>
       <c r="B227" t="s">
-        <v>115</v>
+        <v>475</v>
       </c>
       <c r="C227">
         <v>0</v>
@@ -5042,10 +5038,10 @@
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>116</v>
+        <v>476</v>
       </c>
       <c r="B228" t="s">
-        <v>117</v>
+        <v>477</v>
       </c>
       <c r="C228">
         <v>0</v>
@@ -5056,10 +5052,10 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>118</v>
+        <v>478</v>
       </c>
       <c r="B229" t="s">
-        <v>119</v>
+        <v>479</v>
       </c>
       <c r="C229">
         <v>0</v>
@@ -5070,10 +5066,10 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>120</v>
+        <v>480</v>
       </c>
       <c r="B230" t="s">
-        <v>121</v>
+        <v>481</v>
       </c>
       <c r="C230">
         <v>0</v>
@@ -5084,10 +5080,10 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>122</v>
+        <v>482</v>
       </c>
       <c r="B231" t="s">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="C231">
         <v>0</v>
@@ -5098,10 +5094,10 @@
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="B232" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
       <c r="C232">
         <v>0</v>
@@ -5112,10 +5108,10 @@
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="B233" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c r="C233">
         <v>0</v>
@@ -5126,13 +5122,13 @@
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>128</v>
+        <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>129</v>
+        <v>238</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -5140,13 +5136,13 @@
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="B235" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -5154,10 +5150,10 @@
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="B236" t="s">
-        <v>133</v>
+        <v>358</v>
       </c>
       <c r="C236">
         <v>0</v>
@@ -5168,10 +5164,10 @@
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>134</v>
+        <v>359</v>
       </c>
       <c r="B237" t="s">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="C237">
         <v>0</v>
@@ -5182,10 +5178,10 @@
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>1</v>
+        <v>361</v>
       </c>
       <c r="B238" t="s">
-        <v>2</v>
+        <v>362</v>
       </c>
       <c r="C238">
         <v>0</v>
@@ -5196,10 +5192,10 @@
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>3</v>
+        <v>363</v>
       </c>
       <c r="B239" t="s">
-        <v>4</v>
+        <v>364</v>
       </c>
       <c r="C239">
         <v>0</v>
@@ -5210,10 +5206,10 @@
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>5</v>
+        <v>365</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>366</v>
       </c>
       <c r="C240">
         <v>0</v>
@@ -5222,21 +5218,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" t="s">
-        <v>7</v>
-      </c>
-      <c r="B241" t="s">
-        <v>8</v>
-      </c>
-      <c r="C241">
-        <v>0</v>
-      </c>
-      <c r="D241">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
